--- a/Code/Results/Cases/Case_1_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6821186098845828</v>
+        <v>0.7015001070189442</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.03191053927462661</v>
+        <v>0.09636837988456293</v>
       </c>
       <c r="E2">
-        <v>0.05268460773777539</v>
+        <v>0.1287761185195411</v>
       </c>
       <c r="F2">
-        <v>1.094339737630435</v>
+        <v>2.134116765214429</v>
       </c>
       <c r="G2">
-        <v>0.8779621597740004</v>
+        <v>1.480204298445784</v>
       </c>
       <c r="H2">
-        <v>0.619775973572942</v>
+        <v>1.35901841967636</v>
       </c>
       <c r="I2">
-        <v>0.6058430278076301</v>
+        <v>1.396732643407024</v>
       </c>
       <c r="J2">
-        <v>0.09798256899853541</v>
+        <v>0.1897913559789171</v>
       </c>
       <c r="K2">
-        <v>1.419643127756075</v>
+        <v>0.6071898264123092</v>
       </c>
       <c r="L2">
-        <v>0.2885062908194413</v>
+        <v>0.3082827602104743</v>
       </c>
       <c r="M2">
-        <v>0.2219487834549199</v>
+        <v>0.2321165219618564</v>
       </c>
       <c r="N2">
-        <v>1.23130593555296</v>
+        <v>2.592149438367114</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6033824608310852</v>
+        <v>0.6828486133654508</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03083524853478892</v>
+        <v>0.09629881893960146</v>
       </c>
       <c r="E3">
-        <v>0.05256520256283181</v>
+        <v>0.1288882573821837</v>
       </c>
       <c r="F3">
-        <v>1.060775499148463</v>
+        <v>2.138013436790757</v>
       </c>
       <c r="G3">
-        <v>0.8414161971043796</v>
+        <v>1.480297368150204</v>
       </c>
       <c r="H3">
-        <v>0.6099755982601067</v>
+        <v>1.363992512497063</v>
       </c>
       <c r="I3">
-        <v>0.6142983646400282</v>
+        <v>1.405896513800375</v>
       </c>
       <c r="J3">
-        <v>0.09715847220956775</v>
+        <v>0.1895722996663167</v>
       </c>
       <c r="K3">
-        <v>1.23114506465231</v>
+        <v>0.5552245767987358</v>
       </c>
       <c r="L3">
-        <v>0.2564179646312823</v>
+        <v>0.3012654240460506</v>
       </c>
       <c r="M3">
-        <v>0.1967242206889672</v>
+        <v>0.2263363731392154</v>
       </c>
       <c r="N3">
-        <v>1.283465632849973</v>
+        <v>2.614493330738117</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5554170420331275</v>
+        <v>0.6716808960933633</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.03019059632821808</v>
+        <v>0.09626877645010445</v>
       </c>
       <c r="E4">
-        <v>0.05250610290668112</v>
+        <v>0.1289647210967535</v>
       </c>
       <c r="F4">
-        <v>1.04185608274031</v>
+        <v>2.141342489945714</v>
       </c>
       <c r="G4">
-        <v>0.8205340833472263</v>
+        <v>1.481117734135125</v>
       </c>
       <c r="H4">
-        <v>0.6048694638365788</v>
+        <v>1.367577633699867</v>
       </c>
       <c r="I4">
-        <v>0.6203231262248146</v>
+        <v>1.412012641346664</v>
       </c>
       <c r="J4">
-        <v>0.0966661344992481</v>
+        <v>0.1894411974974339</v>
       </c>
       <c r="K4">
-        <v>1.116015864258827</v>
+        <v>0.5235165051146566</v>
       </c>
       <c r="L4">
-        <v>0.2369628092766902</v>
+        <v>0.2970965463758262</v>
       </c>
       <c r="M4">
-        <v>0.1813867610123623</v>
+        <v>0.2228862854765943</v>
       </c>
       <c r="N4">
-        <v>1.316817711914737</v>
+        <v>2.628916241808426</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5359578532784894</v>
+        <v>0.6672019392284767</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.02993157105519373</v>
+        <v>0.0962597334852866</v>
       </c>
       <c r="E5">
-        <v>0.05248541781187721</v>
+        <v>0.1289977971083892</v>
       </c>
       <c r="F5">
-        <v>1.034552040753475</v>
+        <v>2.142934793397309</v>
       </c>
       <c r="G5">
-        <v>0.8123956595052988</v>
+        <v>1.481643980562211</v>
       </c>
       <c r="H5">
-        <v>0.6030086366136516</v>
+        <v>1.369172252910133</v>
       </c>
       <c r="I5">
-        <v>0.6229818047677078</v>
+        <v>1.414628201432365</v>
       </c>
       <c r="J5">
-        <v>0.09646870694927401</v>
+        <v>0.1893886301282528</v>
       </c>
       <c r="K5">
-        <v>1.069227938839134</v>
+        <v>0.5106456590079631</v>
       </c>
       <c r="L5">
-        <v>0.2290915286339441</v>
+        <v>0.2954329624800636</v>
       </c>
       <c r="M5">
-        <v>0.175171253120574</v>
+        <v>0.2215053541390866</v>
       </c>
       <c r="N5">
-        <v>1.330735798677049</v>
+        <v>2.634970695155394</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5327317005977363</v>
+        <v>0.6664625730276157</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0298887754376338</v>
+        <v>0.0962584255727652</v>
       </c>
       <c r="E6">
-        <v>0.05248218344252265</v>
+        <v>0.1290034051872402</v>
       </c>
       <c r="F6">
-        <v>1.033363181490969</v>
+        <v>2.143213435062421</v>
       </c>
       <c r="G6">
-        <v>0.8110661248475282</v>
+        <v>1.481742956826466</v>
       </c>
       <c r="H6">
-        <v>0.6027126732368657</v>
+        <v>1.369445114292944</v>
       </c>
       <c r="I6">
-        <v>0.6234354006696741</v>
+        <v>1.415069956605279</v>
       </c>
       <c r="J6">
-        <v>0.09643611133384589</v>
+        <v>0.1893799532584008</v>
       </c>
       <c r="K6">
-        <v>1.061465873796834</v>
+        <v>0.5085115254981929</v>
       </c>
       <c r="L6">
-        <v>0.227787792637514</v>
+        <v>0.2951588591116376</v>
       </c>
       <c r="M6">
-        <v>0.1741411736353804</v>
+        <v>0.2212775656499915</v>
       </c>
       <c r="N6">
-        <v>1.333066441973488</v>
+        <v>2.635986724580768</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5551542663841076</v>
+        <v>0.6716201992517199</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03018708844416729</v>
+        <v>0.09626864151906922</v>
       </c>
       <c r="E7">
-        <v>0.05250581040248692</v>
+        <v>0.1289651594075989</v>
       </c>
       <c r="F7">
-        <v>1.041755959280543</v>
+        <v>2.141363009753078</v>
       </c>
       <c r="G7">
-        <v>0.8204228488654337</v>
+        <v>1.481124054090117</v>
       </c>
       <c r="H7">
-        <v>0.6048434892433647</v>
+        <v>1.367598597969163</v>
       </c>
       <c r="I7">
-        <v>0.6203581656378887</v>
+        <v>1.412047416779444</v>
       </c>
       <c r="J7">
-        <v>0.09666345924226505</v>
+        <v>0.1894404850775331</v>
       </c>
       <c r="K7">
-        <v>1.11538437914362</v>
+        <v>0.5233427195002776</v>
       </c>
       <c r="L7">
-        <v>0.2368564310407493</v>
+        <v>0.2970739677519418</v>
       </c>
       <c r="M7">
-        <v>0.1813028004060122</v>
+        <v>0.2228675603319701</v>
       </c>
       <c r="N7">
-        <v>1.317004101114756</v>
+        <v>2.628997177545198</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.654886670000451</v>
+        <v>0.6950103245349624</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.03153639237847372</v>
+        <v>0.09634177427574642</v>
       </c>
       <c r="E8">
-        <v>0.05264037586079673</v>
+        <v>0.1288132062136804</v>
       </c>
       <c r="F8">
-        <v>1.082404460004177</v>
+        <v>2.135266087703712</v>
       </c>
       <c r="G8">
-        <v>0.8650252913083847</v>
+        <v>1.480077991740785</v>
       </c>
       <c r="H8">
-        <v>0.6162019621674659</v>
+        <v>1.360623350658798</v>
       </c>
       <c r="I8">
-        <v>0.6085818286297773</v>
+        <v>1.399790819227558</v>
       </c>
       <c r="J8">
-        <v>0.09769544037599154</v>
+        <v>0.1897151215683728</v>
       </c>
       <c r="K8">
-        <v>1.354506933626965</v>
+        <v>0.5892312063767804</v>
       </c>
       <c r="L8">
-        <v>0.2773876314308694</v>
+        <v>0.3058342342705345</v>
       </c>
       <c r="M8">
-        <v>0.2132181137195452</v>
+        <v>0.2301030636418737</v>
       </c>
       <c r="N8">
-        <v>1.249011393589157</v>
+        <v>2.599707601402448</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8538682135889815</v>
+        <v>0.7431169459979401</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03431824388457372</v>
+        <v>0.09658513133600266</v>
       </c>
       <c r="E9">
-        <v>0.0530257967856953</v>
+        <v>0.1285754918161366</v>
       </c>
       <c r="F9">
-        <v>1.17643042957134</v>
+        <v>2.130733573261367</v>
       </c>
       <c r="G9">
-        <v>0.9658260428737862</v>
+        <v>1.484083400929734</v>
       </c>
       <c r="H9">
-        <v>0.6461490553361955</v>
+        <v>1.35115335562142</v>
       </c>
       <c r="I9">
-        <v>0.5923827432736815</v>
+        <v>1.379634834917567</v>
       </c>
       <c r="J9">
-        <v>0.09983899375629868</v>
+        <v>0.1902805583271352</v>
       </c>
       <c r="K9">
-        <v>1.829486094514834</v>
+        <v>0.7200023486641385</v>
       </c>
       <c r="L9">
-        <v>0.3590891253421802</v>
+        <v>0.3241184480808528</v>
       </c>
       <c r="M9">
-        <v>0.2771554224398542</v>
+        <v>0.2450723488526876</v>
       </c>
       <c r="N9">
-        <v>1.126505745191636</v>
+        <v>2.547850770781498</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.00274181262688</v>
+        <v>0.7798060967122922</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03646409621694957</v>
+        <v>0.0968241514780992</v>
       </c>
       <c r="E10">
-        <v>0.05339655926191877</v>
+        <v>0.1284374373496862</v>
       </c>
       <c r="F10">
-        <v>1.255593291622887</v>
+        <v>2.131922380607591</v>
       </c>
       <c r="G10">
-        <v>1.049471608744014</v>
+        <v>1.490722594755923</v>
       </c>
       <c r="H10">
-        <v>0.6734870424902937</v>
+        <v>1.346755837485716</v>
       </c>
       <c r="I10">
-        <v>0.5851017571273047</v>
+        <v>1.367185018691089</v>
       </c>
       <c r="J10">
-        <v>0.1015045216999901</v>
+        <v>0.1907122946742419</v>
       </c>
       <c r="K10">
-        <v>2.183999679787888</v>
+        <v>0.8170254932047669</v>
       </c>
       <c r="L10">
-        <v>0.4208576727224624</v>
+        <v>0.3382223063951528</v>
       </c>
       <c r="M10">
-        <v>0.3251909934544273</v>
+        <v>0.2565412637944533</v>
       </c>
       <c r="N10">
-        <v>1.043551436735182</v>
+        <v>2.513147371847896</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.071195488284587</v>
+        <v>0.7967851712134859</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03746733778139344</v>
+        <v>0.09694582372810245</v>
       </c>
       <c r="E11">
-        <v>0.05358765854876024</v>
+        <v>0.1283825503723044</v>
       </c>
       <c r="F11">
-        <v>1.294120365844222</v>
+        <v>2.133443209755583</v>
       </c>
       <c r="G11">
-        <v>1.089955675584932</v>
+        <v>1.494546657422177</v>
       </c>
       <c r="H11">
-        <v>0.6872405039961222</v>
+        <v>1.345310125216969</v>
       </c>
       <c r="I11">
-        <v>0.5828921004304917</v>
+        <v>1.362032213900214</v>
       </c>
       <c r="J11">
-        <v>0.1022862898911008</v>
+        <v>0.190912232958496</v>
       </c>
       <c r="K11">
-        <v>2.346928223252263</v>
+        <v>0.8613680992391153</v>
       </c>
       <c r="L11">
-        <v>0.4494298741927309</v>
+        <v>0.3447834888583259</v>
       </c>
       <c r="M11">
-        <v>0.3473308235009114</v>
+        <v>0.2618601031750885</v>
       </c>
       <c r="N11">
-        <v>1.007451817882053</v>
+        <v>2.498096018825002</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.097234831004357</v>
+        <v>0.8032558449861256</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03785159149192552</v>
+        <v>0.09699374617140322</v>
       </c>
       <c r="E12">
-        <v>0.05366357073816097</v>
+        <v>0.1283629019570192</v>
       </c>
       <c r="F12">
-        <v>1.309100451147231</v>
+        <v>2.13415989126878</v>
       </c>
       <c r="G12">
-        <v>1.10566733286781</v>
+        <v>1.49611036347244</v>
       </c>
       <c r="H12">
-        <v>0.6926522647748641</v>
+        <v>1.344842342036458</v>
       </c>
       <c r="I12">
-        <v>0.5822228462047008</v>
+        <v>1.360154320590375</v>
       </c>
       <c r="J12">
-        <v>0.1025861990454118</v>
+        <v>0.1909884513024096</v>
       </c>
       <c r="K12">
-        <v>2.408903294169392</v>
+        <v>0.8781888305387042</v>
       </c>
       <c r="L12">
-        <v>0.4603258560873371</v>
+        <v>0.3472888376835641</v>
       </c>
       <c r="M12">
-        <v>0.3557610687092705</v>
+        <v>0.2638887068645133</v>
       </c>
       <c r="N12">
-        <v>0.9940270818625265</v>
+        <v>2.492502162729036</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.091621363039309</v>
+        <v>0.8018604509625504</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03776863443355438</v>
+        <v>0.09698334324014013</v>
       </c>
       <c r="E13">
-        <v>0.05364705844909312</v>
+        <v>0.1283670830983936</v>
       </c>
       <c r="F13">
-        <v>1.305856359161581</v>
+        <v>2.133999282406194</v>
       </c>
       <c r="G13">
-        <v>1.102266066821656</v>
+        <v>1.495768448958799</v>
       </c>
       <c r="H13">
-        <v>0.6914774510670298</v>
+        <v>1.344939545362948</v>
       </c>
       <c r="I13">
-        <v>0.5823593832097274</v>
+        <v>1.360555496871214</v>
       </c>
       <c r="J13">
-        <v>0.1025214292311603</v>
+        <v>0.1909720138569924</v>
       </c>
       <c r="K13">
-        <v>2.395542853011136</v>
+        <v>0.8745648969103286</v>
       </c>
       <c r="L13">
-        <v>0.4579756793773271</v>
+        <v>0.3467483440463042</v>
       </c>
       <c r="M13">
-        <v>0.3539433196682111</v>
+        <v>0.2634511690897838</v>
       </c>
       <c r="N13">
-        <v>0.9969072565007728</v>
+        <v>2.493702195534564</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.073335333094832</v>
+        <v>0.7973166972077763</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03749886064623809</v>
+        <v>0.09694972937815294</v>
       </c>
       <c r="E14">
-        <v>0.05359383083976432</v>
+        <v>0.1283809111276728</v>
       </c>
       <c r="F14">
-        <v>1.295344781979139</v>
+        <v>2.133499351067087</v>
       </c>
       <c r="G14">
-        <v>1.09124045484792</v>
+        <v>1.494672987202975</v>
       </c>
       <c r="H14">
-        <v>0.6876815666111753</v>
+        <v>1.345270044110492</v>
       </c>
       <c r="I14">
-        <v>0.5828336300494215</v>
+        <v>1.36187624861811</v>
       </c>
       <c r="J14">
-        <v>0.1023108835680908</v>
+        <v>0.1909184933619059</v>
       </c>
       <c r="K14">
-        <v>2.352021151766763</v>
+        <v>0.8627513696981453</v>
       </c>
       <c r="L14">
-        <v>0.450324714315542</v>
+        <v>0.3449891897978148</v>
       </c>
       <c r="M14">
-        <v>0.3480234259197488</v>
+        <v>0.2620267082798975</v>
       </c>
       <c r="N14">
-        <v>1.006342378262172</v>
+        <v>2.497633689136823</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.062150287079248</v>
+        <v>0.7945388503914614</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03733419696848728</v>
+        <v>0.09692938017105845</v>
       </c>
       <c r="E15">
-        <v>0.05356169943705402</v>
+        <v>0.1283895290887884</v>
       </c>
       <c r="F15">
-        <v>1.288957918478033</v>
+        <v>2.133211457471774</v>
       </c>
       <c r="G15">
-        <v>1.084537565948125</v>
+        <v>1.494017042601584</v>
       </c>
       <c r="H15">
-        <v>0.6853834358560107</v>
+        <v>1.345482857609085</v>
       </c>
       <c r="I15">
-        <v>0.5831462094400379</v>
+        <v>1.362694798949633</v>
       </c>
       <c r="J15">
-        <v>0.1021824350025398</v>
+        <v>0.1908857763321166</v>
       </c>
       <c r="K15">
-        <v>2.325400213642524</v>
+        <v>0.8555190238859041</v>
       </c>
       <c r="L15">
-        <v>0.4456484706201422</v>
+        <v>0.3439143585871847</v>
       </c>
       <c r="M15">
-        <v>0.3444035117113344</v>
+        <v>0.2611560660339407</v>
       </c>
       <c r="N15">
-        <v>1.012153932784898</v>
+        <v>2.500055616678985</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9982839396019187</v>
+        <v>0.7787022476541665</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03639911460818368</v>
+        <v>0.09681645919096127</v>
       </c>
       <c r="E16">
-        <v>0.05338454858473662</v>
+        <v>0.1284411834310364</v>
       </c>
       <c r="F16">
-        <v>1.253128504046146</v>
+        <v>2.13184269869592</v>
       </c>
       <c r="G16">
-        <v>1.046877466389745</v>
+        <v>1.490488860893151</v>
       </c>
       <c r="H16">
-        <v>0.6726159175444479</v>
+        <v>1.346861472893778</v>
       </c>
       <c r="I16">
-        <v>0.5852690997960366</v>
+        <v>1.367532036511143</v>
       </c>
       <c r="J16">
-        <v>0.1014539500386427</v>
+        <v>0.1906992992083065</v>
       </c>
       <c r="K16">
-        <v>2.173388559926138</v>
+        <v>0.8141317066549902</v>
       </c>
       <c r="L16">
-        <v>0.4190006273481828</v>
+        <v>0.3377964307576633</v>
       </c>
       <c r="M16">
-        <v>0.3237503158495088</v>
+        <v>0.2561956977989865</v>
       </c>
       <c r="N16">
-        <v>1.045944408966349</v>
+        <v>2.514145812478947</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9592996011442949</v>
+        <v>0.7690606743891237</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03583271532357557</v>
+        <v>0.0967504909089989</v>
       </c>
       <c r="E17">
-        <v>0.05328183632808847</v>
+        <v>0.1284748973670289</v>
       </c>
       <c r="F17">
-        <v>1.23181255090924</v>
+        <v>2.131253911980423</v>
       </c>
       <c r="G17">
-        <v>1.024418975521698</v>
+        <v>1.488530339358292</v>
       </c>
       <c r="H17">
-        <v>0.6651306091229685</v>
+        <v>1.347849223658741</v>
       </c>
       <c r="I17">
-        <v>0.5868599770255187</v>
+        <v>1.370630270025501</v>
       </c>
       <c r="J17">
-        <v>0.1010134978395154</v>
+        <v>0.1905858059490519</v>
       </c>
       <c r="K17">
-        <v>2.08058596112474</v>
+        <v>0.78879439745441</v>
       </c>
       <c r="L17">
-        <v>0.4027799435191355</v>
+        <v>0.3340804026300077</v>
       </c>
       <c r="M17">
-        <v>0.3111574574348595</v>
+        <v>0.2531785942006834</v>
       </c>
       <c r="N17">
-        <v>1.06709989516796</v>
+        <v>2.522978054007925</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9369447882724273</v>
+        <v>0.7635423273934805</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03550945654993498</v>
+        <v>0.09671376651664332</v>
       </c>
       <c r="E18">
-        <v>0.05322484971787711</v>
+        <v>0.1284950338170014</v>
       </c>
       <c r="F18">
-        <v>1.219787088293415</v>
+        <v>2.131007511911506</v>
       </c>
       <c r="G18">
-        <v>1.011728465650307</v>
+        <v>1.48747951131287</v>
       </c>
       <c r="H18">
-        <v>0.6609483331625796</v>
+        <v>1.348469572164731</v>
       </c>
       <c r="I18">
-        <v>0.5878782076419498</v>
+        <v>1.372460363830172</v>
       </c>
       <c r="J18">
-        <v>0.1007624043672539</v>
+        <v>0.1905208609297553</v>
       </c>
       <c r="K18">
-        <v>2.027361953115218</v>
+        <v>0.7742404952944071</v>
       </c>
       <c r="L18">
-        <v>0.3934942617944586</v>
+        <v>0.3319567217420172</v>
       </c>
       <c r="M18">
-        <v>0.303941189529219</v>
+        <v>0.2514528043337734</v>
       </c>
       <c r="N18">
-        <v>1.079421382809119</v>
+        <v>2.528127343650095</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.92938713950889</v>
+        <v>0.7616786018139408</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03540042634032403</v>
+        <v>0.09670154200265557</v>
       </c>
       <c r="E19">
-        <v>0.05320590491581001</v>
+        <v>0.1285019797050972</v>
       </c>
       <c r="F19">
-        <v>1.215754970837537</v>
+        <v>2.130939934507779</v>
       </c>
       <c r="G19">
-        <v>1.007469752301375</v>
+        <v>1.487136713297573</v>
       </c>
       <c r="H19">
-        <v>0.6595530096003017</v>
+        <v>1.348688583308856</v>
       </c>
       <c r="I19">
-        <v>0.5882404250478785</v>
+        <v>1.373088260771503</v>
       </c>
       <c r="J19">
-        <v>0.100677762035648</v>
+        <v>0.1904989289952521</v>
       </c>
       <c r="K19">
-        <v>2.009366457611463</v>
+        <v>0.7693161499977919</v>
       </c>
       <c r="L19">
-        <v>0.3903576105030169</v>
+        <v>0.3312400330619312</v>
       </c>
       <c r="M19">
-        <v>0.30150234586376</v>
+        <v>0.250870128911032</v>
       </c>
       <c r="N19">
-        <v>1.083619281000619</v>
+        <v>2.529882692480861</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9634424312487511</v>
+        <v>0.7700842215780881</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0358927456514877</v>
+        <v>0.09675738729818306</v>
       </c>
       <c r="E20">
-        <v>0.05329255162590796</v>
+        <v>0.1284712313628196</v>
       </c>
       <c r="F20">
-        <v>1.234057155100459</v>
+        <v>2.131307042435083</v>
       </c>
       <c r="G20">
-        <v>1.026786005235593</v>
+        <v>1.48873099644949</v>
       </c>
       <c r="H20">
-        <v>0.6659145957346198</v>
+        <v>1.347738671973147</v>
       </c>
       <c r="I20">
-        <v>0.5866798817389238</v>
+        <v>1.370295483054335</v>
       </c>
       <c r="J20">
-        <v>0.1010601497960213</v>
+        <v>0.1905978530261194</v>
       </c>
       <c r="K20">
-        <v>2.090448786780797</v>
+        <v>0.7914895882175301</v>
       </c>
       <c r="L20">
-        <v>0.4045020487889701</v>
+        <v>0.3344745651714049</v>
       </c>
       <c r="M20">
-        <v>0.3124951793300497</v>
+        <v>0.2534987806956437</v>
       </c>
       <c r="N20">
-        <v>1.064831909570202</v>
+        <v>2.522030682918967</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.078703093196054</v>
+        <v>0.7986501971940072</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03757797787664785</v>
+        <v>0.09695955253819477</v>
       </c>
       <c r="E21">
-        <v>0.05360936608223099</v>
+        <v>0.1283768186827925</v>
       </c>
       <c r="F21">
-        <v>1.298421441009083</v>
+        <v>2.13364237358627</v>
       </c>
       <c r="G21">
-        <v>1.094468336517835</v>
+        <v>1.494991612895305</v>
       </c>
       <c r="H21">
-        <v>0.6887908649353136</v>
+        <v>1.345170806961164</v>
       </c>
       <c r="I21">
-        <v>0.582689711929838</v>
+        <v>1.36148632136738</v>
       </c>
       <c r="J21">
-        <v>0.1023726174669228</v>
+        <v>0.1909341999172334</v>
       </c>
       <c r="K21">
-        <v>2.364796670293345</v>
+        <v>0.8662205020283693</v>
       </c>
       <c r="L21">
-        <v>0.4525698483061547</v>
+        <v>0.345505333250145</v>
       </c>
       <c r="M21">
-        <v>0.3497609425528054</v>
+        <v>0.2624447151575353</v>
       </c>
       <c r="N21">
-        <v>1.003564310266757</v>
+        <v>2.49647604360376</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.154723444936167</v>
+        <v>0.8175588548762676</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03870496595067152</v>
+        <v>0.09710244369725629</v>
       </c>
       <c r="E22">
-        <v>0.05383727257540061</v>
+        <v>0.1283217356690785</v>
       </c>
       <c r="F22">
-        <v>1.342779702742575</v>
+        <v>2.135989131289477</v>
       </c>
       <c r="G22">
-        <v>1.140941011281626</v>
+        <v>1.499757199881913</v>
       </c>
       <c r="H22">
-        <v>0.7049361066632258</v>
+        <v>1.343956932372052</v>
       </c>
       <c r="I22">
-        <v>0.5810628207724378</v>
+        <v>1.356156601782494</v>
       </c>
       <c r="J22">
-        <v>0.1032531692679086</v>
+        <v>0.191156970430864</v>
       </c>
       <c r="K22">
-        <v>2.545737191618912</v>
+        <v>0.9152311357546807</v>
       </c>
       <c r="L22">
-        <v>0.4844340261603861</v>
+        <v>0.3528355950758026</v>
       </c>
       <c r="M22">
-        <v>0.3743891269738882</v>
+        <v>0.2683757089459391</v>
       </c>
       <c r="N22">
-        <v>0.9649580154318933</v>
+        <v>2.48039109628931</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.114082400809025</v>
+        <v>0.8074452288713303</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.0381009660692726</v>
+        <v>0.09702519930860376</v>
       </c>
       <c r="E23">
-        <v>0.05371361143966658</v>
+        <v>0.1283505293248863</v>
       </c>
       <c r="F23">
-        <v>1.318884937749075</v>
+        <v>2.134661597948991</v>
       </c>
       <c r="G23">
-        <v>1.115921869057445</v>
+        <v>1.4971520458908</v>
       </c>
       <c r="H23">
-        <v>0.6962048250767481</v>
+        <v>1.344562340772228</v>
       </c>
       <c r="I23">
-        <v>0.5818382400420319</v>
+        <v>1.358962074018301</v>
       </c>
       <c r="J23">
-        <v>0.1027809736115515</v>
+        <v>0.19103780477624</v>
       </c>
       <c r="K23">
-        <v>2.449002180020784</v>
+        <v>0.8890578846538233</v>
       </c>
       <c r="L23">
-        <v>0.4673835276770433</v>
+        <v>0.3489122621603684</v>
       </c>
       <c r="M23">
-        <v>0.3612179077316213</v>
+        <v>0.265202555074886</v>
       </c>
       <c r="N23">
-        <v>0.9854280451060795</v>
+        <v>2.488919520868013</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9615692786427417</v>
+        <v>0.7696213988517115</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03586559858649707</v>
+        <v>0.09675426569783596</v>
       </c>
       <c r="E24">
-        <v>0.05328770083454559</v>
+        <v>0.1284728864156619</v>
       </c>
       <c r="F24">
-        <v>1.233041657297846</v>
+        <v>2.13128273525173</v>
       </c>
       <c r="G24">
-        <v>1.025715184528067</v>
+        <v>1.488640045283503</v>
       </c>
       <c r="H24">
-        <v>0.6655597791628054</v>
+        <v>1.347788488914006</v>
       </c>
       <c r="I24">
-        <v>0.5867609807529348</v>
+        <v>1.370446687984021</v>
       </c>
       <c r="J24">
-        <v>0.1010390518470423</v>
+        <v>0.1905924055966839</v>
       </c>
       <c r="K24">
-        <v>2.085989403034034</v>
+        <v>0.7902710523959513</v>
       </c>
       <c r="L24">
-        <v>0.4037233616261773</v>
+        <v>0.3342963246775383</v>
       </c>
       <c r="M24">
-        <v>0.3118903223257092</v>
+        <v>0.2533539970126952</v>
       </c>
       <c r="N24">
-        <v>1.065856771619892</v>
+        <v>2.522458766613273</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7996136562652509</v>
+        <v>0.7298651882808826</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.03354927569493071</v>
+        <v>0.09650867053725776</v>
       </c>
       <c r="E25">
-        <v>0.05290720848664221</v>
+        <v>0.1286333633412362</v>
       </c>
       <c r="F25">
-        <v>1.14932706679474</v>
+        <v>2.131165699576684</v>
       </c>
       <c r="G25">
-        <v>0.9369847198504573</v>
+        <v>1.482350998233855</v>
       </c>
       <c r="H25">
-        <v>0.6371609458360439</v>
+        <v>1.353265269628466</v>
       </c>
       <c r="I25">
-        <v>0.5959854673747387</v>
+        <v>1.384672901178238</v>
       </c>
       <c r="J25">
-        <v>0.09924455825881928</v>
+        <v>0.1901247233613717</v>
       </c>
       <c r="K25">
-        <v>1.700159603196767</v>
+        <v>0.684458664073702</v>
       </c>
       <c r="L25">
-        <v>0.336710527642623</v>
+        <v>0.3190541008548706</v>
       </c>
       <c r="M25">
-        <v>0.2596905051404228</v>
+        <v>0.2409397035203824</v>
       </c>
       <c r="N25">
-        <v>1.158443050390993</v>
+        <v>2.561282666043546</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_106/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_106/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7015001070189442</v>
+        <v>0.6821186098846681</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.09636837988456293</v>
+        <v>0.03191053927469056</v>
       </c>
       <c r="E2">
-        <v>0.1287761185195411</v>
+        <v>0.05268460773777761</v>
       </c>
       <c r="F2">
-        <v>2.134116765214429</v>
+        <v>1.094339737630449</v>
       </c>
       <c r="G2">
-        <v>1.480204298445784</v>
+        <v>0.8779621597740004</v>
       </c>
       <c r="H2">
-        <v>1.35901841967636</v>
+        <v>0.619775973572942</v>
       </c>
       <c r="I2">
-        <v>1.396732643407024</v>
+        <v>0.6058430278076266</v>
       </c>
       <c r="J2">
-        <v>0.1897913559789171</v>
+        <v>0.09798256899854074</v>
       </c>
       <c r="K2">
-        <v>0.6071898264123092</v>
+        <v>1.419643127756018</v>
       </c>
       <c r="L2">
-        <v>0.3082827602104743</v>
+        <v>0.2885062908193987</v>
       </c>
       <c r="M2">
-        <v>0.2321165219618564</v>
+        <v>0.2219487834549234</v>
       </c>
       <c r="N2">
-        <v>2.592149438367114</v>
+        <v>1.231305935552896</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6828486133654508</v>
+        <v>0.6033824608309715</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09629881893960146</v>
+        <v>0.03083524853485287</v>
       </c>
       <c r="E3">
-        <v>0.1288882573821837</v>
+        <v>0.05256520256284714</v>
       </c>
       <c r="F3">
-        <v>2.138013436790757</v>
+        <v>1.060775499148441</v>
       </c>
       <c r="G3">
-        <v>1.480297368150204</v>
+        <v>0.8414161971043939</v>
       </c>
       <c r="H3">
-        <v>1.363992512497063</v>
+        <v>0.6099755982602204</v>
       </c>
       <c r="I3">
-        <v>1.405896513800375</v>
+        <v>0.6142983646400211</v>
       </c>
       <c r="J3">
-        <v>0.1895722996663167</v>
+        <v>0.09715847220944696</v>
       </c>
       <c r="K3">
-        <v>0.5552245767987358</v>
+        <v>1.231145064652253</v>
       </c>
       <c r="L3">
-        <v>0.3012654240460506</v>
+        <v>0.2564179646312397</v>
       </c>
       <c r="M3">
-        <v>0.2263363731392154</v>
+        <v>0.196724220688953</v>
       </c>
       <c r="N3">
-        <v>2.614493330738117</v>
+        <v>1.283465632849961</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6716808960933633</v>
+        <v>0.5554170420331559</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.09626877645010445</v>
+        <v>0.03019059632809196</v>
       </c>
       <c r="E4">
-        <v>0.1289647210967535</v>
+        <v>0.05250610290666424</v>
       </c>
       <c r="F4">
-        <v>2.141342489945714</v>
+        <v>1.041856082740331</v>
       </c>
       <c r="G4">
-        <v>1.481117734135125</v>
+        <v>0.820534083347269</v>
       </c>
       <c r="H4">
-        <v>1.367577633699867</v>
+        <v>0.6048694638365788</v>
       </c>
       <c r="I4">
-        <v>1.412012641346664</v>
+        <v>0.6203231262248146</v>
       </c>
       <c r="J4">
-        <v>0.1894411974974339</v>
+        <v>0.09666613449918238</v>
       </c>
       <c r="K4">
-        <v>0.5235165051146566</v>
+        <v>1.116015864258827</v>
       </c>
       <c r="L4">
-        <v>0.2970965463758262</v>
+        <v>0.2369628092766476</v>
       </c>
       <c r="M4">
-        <v>0.2228862854765943</v>
+        <v>0.1813867610123694</v>
       </c>
       <c r="N4">
-        <v>2.628916241808426</v>
+        <v>1.316817711914794</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6672019392284767</v>
+        <v>0.5359578532786315</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0962597334852866</v>
+        <v>0.02993157105549393</v>
       </c>
       <c r="E5">
-        <v>0.1289977971083892</v>
+        <v>0.05248541781188987</v>
       </c>
       <c r="F5">
-        <v>2.142934793397309</v>
+        <v>1.034552040753496</v>
       </c>
       <c r="G5">
-        <v>1.481643980562211</v>
+        <v>0.812395659505313</v>
       </c>
       <c r="H5">
-        <v>1.369172252910133</v>
+        <v>0.6030086366136516</v>
       </c>
       <c r="I5">
-        <v>1.414628201432365</v>
+        <v>0.6229818047677007</v>
       </c>
       <c r="J5">
-        <v>0.1893886301282528</v>
+        <v>0.09646870694927046</v>
       </c>
       <c r="K5">
-        <v>0.5106456590079631</v>
+        <v>1.069227938839134</v>
       </c>
       <c r="L5">
-        <v>0.2954329624800636</v>
+        <v>0.2290915286339441</v>
       </c>
       <c r="M5">
-        <v>0.2215053541390866</v>
+        <v>0.175171253120574</v>
       </c>
       <c r="N5">
-        <v>2.634970695155394</v>
+        <v>1.33073579867699</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6664625730276157</v>
+        <v>0.5327317005974805</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0962584255727652</v>
+        <v>0.02988877543757518</v>
       </c>
       <c r="E6">
-        <v>0.1290034051872402</v>
+        <v>0.05248218344252376</v>
       </c>
       <c r="F6">
-        <v>2.143213435062421</v>
+        <v>1.033363181490977</v>
       </c>
       <c r="G6">
-        <v>1.481742956826466</v>
+        <v>0.8110661248475708</v>
       </c>
       <c r="H6">
-        <v>1.369445114292944</v>
+        <v>0.602712673236752</v>
       </c>
       <c r="I6">
-        <v>1.415069956605279</v>
+        <v>0.623435400669667</v>
       </c>
       <c r="J6">
-        <v>0.1893799532584008</v>
+        <v>0.09643611133384944</v>
       </c>
       <c r="K6">
-        <v>0.5085115254981929</v>
+        <v>1.061465873796806</v>
       </c>
       <c r="L6">
-        <v>0.2951588591116376</v>
+        <v>0.2277877926375567</v>
       </c>
       <c r="M6">
-        <v>0.2212775656499915</v>
+        <v>0.1741411736353768</v>
       </c>
       <c r="N6">
-        <v>2.635986724580768</v>
+        <v>1.333066441973418</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6716201992517199</v>
+        <v>0.5551542663839655</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.09626864151906922</v>
+        <v>0.03018708844422058</v>
       </c>
       <c r="E7">
-        <v>0.1289651594075989</v>
+        <v>0.0525058104024716</v>
       </c>
       <c r="F7">
-        <v>2.141363009753078</v>
+        <v>1.04175595928055</v>
       </c>
       <c r="G7">
-        <v>1.481124054090117</v>
+        <v>0.8204228488654479</v>
       </c>
       <c r="H7">
-        <v>1.367598597969163</v>
+        <v>0.6048434892433505</v>
       </c>
       <c r="I7">
-        <v>1.412047416779444</v>
+        <v>0.6203581656378958</v>
       </c>
       <c r="J7">
-        <v>0.1894404850775331</v>
+        <v>0.09666345924238762</v>
       </c>
       <c r="K7">
-        <v>0.5233427195002776</v>
+        <v>1.115384379143478</v>
       </c>
       <c r="L7">
-        <v>0.2970739677519418</v>
+        <v>0.2368564310408345</v>
       </c>
       <c r="M7">
-        <v>0.2228675603319701</v>
+        <v>0.181302800405998</v>
       </c>
       <c r="N7">
-        <v>2.628997177545198</v>
+        <v>1.317004101114815</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6950103245349624</v>
+        <v>0.654886670000451</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.09634177427574642</v>
+        <v>0.03153639237836003</v>
       </c>
       <c r="E8">
-        <v>0.1288132062136804</v>
+        <v>0.05264037586078252</v>
       </c>
       <c r="F8">
-        <v>2.135266087703712</v>
+        <v>1.082404460004163</v>
       </c>
       <c r="G8">
-        <v>1.480077991740785</v>
+        <v>0.8650252913083278</v>
       </c>
       <c r="H8">
-        <v>1.360623350658798</v>
+        <v>0.6162019621674517</v>
       </c>
       <c r="I8">
-        <v>1.399790819227558</v>
+        <v>0.6085818286297844</v>
       </c>
       <c r="J8">
-        <v>0.1897151215683728</v>
+        <v>0.09769544037599687</v>
       </c>
       <c r="K8">
-        <v>0.5892312063767804</v>
+        <v>1.354506933626936</v>
       </c>
       <c r="L8">
-        <v>0.3058342342705345</v>
+        <v>0.2773876314307984</v>
       </c>
       <c r="M8">
-        <v>0.2301030636418737</v>
+        <v>0.2132181137195417</v>
       </c>
       <c r="N8">
-        <v>2.599707601402448</v>
+        <v>1.249011393589161</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7431169459979401</v>
+        <v>0.8538682135889246</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.09658513133600266</v>
+        <v>0.03431824388482596</v>
       </c>
       <c r="E9">
-        <v>0.1285754918161366</v>
+        <v>0.05302579678569797</v>
       </c>
       <c r="F9">
-        <v>2.130733573261367</v>
+        <v>1.176430429571354</v>
       </c>
       <c r="G9">
-        <v>1.484083400929734</v>
+        <v>0.9658260428737577</v>
       </c>
       <c r="H9">
-        <v>1.35115335562142</v>
+        <v>0.6461490553361813</v>
       </c>
       <c r="I9">
-        <v>1.379634834917567</v>
+        <v>0.592382743273685</v>
       </c>
       <c r="J9">
-        <v>0.1902805583271352</v>
+        <v>0.09983899375627203</v>
       </c>
       <c r="K9">
-        <v>0.7200023486641385</v>
+        <v>1.829486094514891</v>
       </c>
       <c r="L9">
-        <v>0.3241184480808528</v>
+        <v>0.3590891253421944</v>
       </c>
       <c r="M9">
-        <v>0.2450723488526876</v>
+        <v>0.2771554224398542</v>
       </c>
       <c r="N9">
-        <v>2.547850770781498</v>
+        <v>1.126505745191707</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7798060967122922</v>
+        <v>1.002741812626994</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0968241514780992</v>
+        <v>0.03646409621687852</v>
       </c>
       <c r="E10">
-        <v>0.1284374373496862</v>
+        <v>0.05339655926196452</v>
       </c>
       <c r="F10">
-        <v>2.131922380607591</v>
+        <v>1.255593291622887</v>
       </c>
       <c r="G10">
-        <v>1.490722594755923</v>
+        <v>1.049471608743971</v>
       </c>
       <c r="H10">
-        <v>1.346755837485716</v>
+        <v>0.67348704249018</v>
       </c>
       <c r="I10">
-        <v>1.367185018691089</v>
+        <v>0.5851017571273118</v>
       </c>
       <c r="J10">
-        <v>0.1907122946742419</v>
+        <v>0.1015045216999564</v>
       </c>
       <c r="K10">
-        <v>0.8170254932047669</v>
+        <v>2.183999679787775</v>
       </c>
       <c r="L10">
-        <v>0.3382223063951528</v>
+        <v>0.4208576727225335</v>
       </c>
       <c r="M10">
-        <v>0.2565412637944533</v>
+        <v>0.3251909934544273</v>
       </c>
       <c r="N10">
-        <v>2.513147371847896</v>
+        <v>1.04355143673515</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7967851712134859</v>
+        <v>1.071195488284701</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.09694582372810245</v>
+        <v>0.03746733778132239</v>
       </c>
       <c r="E11">
-        <v>0.1283825503723044</v>
+        <v>0.05358765854876135</v>
       </c>
       <c r="F11">
-        <v>2.133443209755583</v>
+        <v>1.294120365844222</v>
       </c>
       <c r="G11">
-        <v>1.494546657422177</v>
+        <v>1.089955675584946</v>
       </c>
       <c r="H11">
-        <v>1.345310125216969</v>
+        <v>0.6872405039961222</v>
       </c>
       <c r="I11">
-        <v>1.362032213900214</v>
+        <v>0.5828921004304704</v>
       </c>
       <c r="J11">
-        <v>0.190912232958496</v>
+        <v>0.1022862898911079</v>
       </c>
       <c r="K11">
-        <v>0.8613680992391153</v>
+        <v>2.346928223252263</v>
       </c>
       <c r="L11">
-        <v>0.3447834888583259</v>
+        <v>0.4494298741927878</v>
       </c>
       <c r="M11">
-        <v>0.2618601031750885</v>
+        <v>0.3473308235009114</v>
       </c>
       <c r="N11">
-        <v>2.498096018825002</v>
+        <v>1.00745181788206</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8032558449861256</v>
+        <v>1.097234831004499</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.09699374617140322</v>
+        <v>0.03785159149204276</v>
       </c>
       <c r="E12">
-        <v>0.1283629019570192</v>
+        <v>0.05366357073817563</v>
       </c>
       <c r="F12">
-        <v>2.13415989126878</v>
+        <v>1.309100451147231</v>
       </c>
       <c r="G12">
-        <v>1.49611036347244</v>
+        <v>1.105667332867839</v>
       </c>
       <c r="H12">
-        <v>1.344842342036458</v>
+        <v>0.6926522647749778</v>
       </c>
       <c r="I12">
-        <v>1.360154320590375</v>
+        <v>0.5822228462046866</v>
       </c>
       <c r="J12">
-        <v>0.1909884513024096</v>
+        <v>0.102586199045426</v>
       </c>
       <c r="K12">
-        <v>0.8781888305387042</v>
+        <v>2.408903294169392</v>
       </c>
       <c r="L12">
-        <v>0.3472888376835641</v>
+        <v>0.4603258560872376</v>
       </c>
       <c r="M12">
-        <v>0.2638887068645133</v>
+        <v>0.3557610687092705</v>
       </c>
       <c r="N12">
-        <v>2.492502162729036</v>
+        <v>0.9940270818625763</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8018604509625504</v>
+        <v>1.091621363039167</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09698334324014013</v>
+        <v>0.03776863443355438</v>
       </c>
       <c r="E13">
-        <v>0.1283670830983936</v>
+        <v>0.05364705844909134</v>
       </c>
       <c r="F13">
-        <v>2.133999282406194</v>
+        <v>1.305856359161581</v>
       </c>
       <c r="G13">
-        <v>1.495768448958799</v>
+        <v>1.10226606682167</v>
       </c>
       <c r="H13">
-        <v>1.344939545362948</v>
+        <v>0.6914774510670298</v>
       </c>
       <c r="I13">
-        <v>1.360555496871214</v>
+        <v>0.5823593832097274</v>
       </c>
       <c r="J13">
-        <v>0.1909720138569924</v>
+        <v>0.1025214292311212</v>
       </c>
       <c r="K13">
-        <v>0.8745648969103286</v>
+        <v>2.395542853011079</v>
       </c>
       <c r="L13">
-        <v>0.3467483440463042</v>
+        <v>0.4579756793773555</v>
       </c>
       <c r="M13">
-        <v>0.2634511690897838</v>
+        <v>0.353943319668204</v>
       </c>
       <c r="N13">
-        <v>2.493702195534564</v>
+        <v>0.9969072565008368</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7973166972077763</v>
+        <v>1.07333533309486</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09694972937815294</v>
+        <v>0.03749886064624164</v>
       </c>
       <c r="E14">
-        <v>0.1283809111276728</v>
+        <v>0.0535938308397641</v>
       </c>
       <c r="F14">
-        <v>2.133499351067087</v>
+        <v>1.295344781979125</v>
       </c>
       <c r="G14">
-        <v>1.494672987202975</v>
+        <v>1.091240454847878</v>
       </c>
       <c r="H14">
-        <v>1.345270044110492</v>
+        <v>0.6876815666110616</v>
       </c>
       <c r="I14">
-        <v>1.36187624861811</v>
+        <v>0.5828336300494499</v>
       </c>
       <c r="J14">
-        <v>0.1909184933619059</v>
+        <v>0.102310883568169</v>
       </c>
       <c r="K14">
-        <v>0.8627513696981453</v>
+        <v>2.352021151766877</v>
       </c>
       <c r="L14">
-        <v>0.3449891897978148</v>
+        <v>0.4503247143156415</v>
       </c>
       <c r="M14">
-        <v>0.2620267082798975</v>
+        <v>0.3480234259197417</v>
       </c>
       <c r="N14">
-        <v>2.497633689136823</v>
+        <v>1.006342378262179</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7945388503914614</v>
+        <v>1.062150287079106</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09692938017105845</v>
+        <v>0.0373341969685228</v>
       </c>
       <c r="E15">
-        <v>0.1283895290887884</v>
+        <v>0.0535616994370578</v>
       </c>
       <c r="F15">
-        <v>2.133211457471774</v>
+        <v>1.288957918478033</v>
       </c>
       <c r="G15">
-        <v>1.494017042601584</v>
+        <v>1.084537565948182</v>
       </c>
       <c r="H15">
-        <v>1.345482857609085</v>
+        <v>0.6853834358561244</v>
       </c>
       <c r="I15">
-        <v>1.362694798949633</v>
+        <v>0.5831462094400521</v>
       </c>
       <c r="J15">
-        <v>0.1908857763321166</v>
+        <v>0.1021824350025966</v>
       </c>
       <c r="K15">
-        <v>0.8555190238859041</v>
+        <v>2.32540021364261</v>
       </c>
       <c r="L15">
-        <v>0.3439143585871847</v>
+        <v>0.4456484706201422</v>
       </c>
       <c r="M15">
-        <v>0.2611560660339407</v>
+        <v>0.3444035117113344</v>
       </c>
       <c r="N15">
-        <v>2.500055616678985</v>
+        <v>1.012153932784965</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7787022476541665</v>
+        <v>0.9982839396019187</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09681645919096127</v>
+        <v>0.03639911460818013</v>
       </c>
       <c r="E16">
-        <v>0.1284411834310364</v>
+        <v>0.05338454858474995</v>
       </c>
       <c r="F16">
-        <v>2.13184269869592</v>
+        <v>1.253128504046146</v>
       </c>
       <c r="G16">
-        <v>1.490488860893151</v>
+        <v>1.046877466389731</v>
       </c>
       <c r="H16">
-        <v>1.346861472893778</v>
+        <v>0.6726159175444479</v>
       </c>
       <c r="I16">
-        <v>1.367532036511143</v>
+        <v>0.5852690997960721</v>
       </c>
       <c r="J16">
-        <v>0.1906992992083065</v>
+        <v>0.1014539500386444</v>
       </c>
       <c r="K16">
-        <v>0.8141317066549902</v>
+        <v>2.173388559926195</v>
       </c>
       <c r="L16">
-        <v>0.3377964307576633</v>
+        <v>0.4190006273482112</v>
       </c>
       <c r="M16">
-        <v>0.2561956977989865</v>
+        <v>0.323750315849523</v>
       </c>
       <c r="N16">
-        <v>2.514145812478947</v>
+        <v>1.045944408966353</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.7690606743891237</v>
+        <v>0.9592996011440391</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.0967504909089989</v>
+        <v>0.03583271532371768</v>
       </c>
       <c r="E17">
-        <v>0.1284748973670289</v>
+        <v>0.05328183632807559</v>
       </c>
       <c r="F17">
-        <v>2.131253911980423</v>
+        <v>1.23181255090924</v>
       </c>
       <c r="G17">
-        <v>1.488530339358292</v>
+        <v>1.024418975521741</v>
       </c>
       <c r="H17">
-        <v>1.347849223658741</v>
+        <v>0.6651306091230964</v>
       </c>
       <c r="I17">
-        <v>1.370630270025501</v>
+        <v>0.5868599770254974</v>
       </c>
       <c r="J17">
-        <v>0.1905858059490519</v>
+        <v>0.1010134978394461</v>
       </c>
       <c r="K17">
-        <v>0.78879439745441</v>
+        <v>2.080585961124768</v>
       </c>
       <c r="L17">
-        <v>0.3340804026300077</v>
+        <v>0.4027799435190218</v>
       </c>
       <c r="M17">
-        <v>0.2531785942006834</v>
+        <v>0.3111574574348523</v>
       </c>
       <c r="N17">
-        <v>2.522978054007925</v>
+        <v>1.067099895167907</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7635423273934805</v>
+        <v>0.9369447882723705</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09671376651664332</v>
+        <v>0.03550945654982129</v>
       </c>
       <c r="E18">
-        <v>0.1284950338170014</v>
+        <v>0.05322484971787422</v>
       </c>
       <c r="F18">
-        <v>2.131007511911506</v>
+        <v>1.219787088293415</v>
       </c>
       <c r="G18">
-        <v>1.48747951131287</v>
+        <v>1.011728465650336</v>
       </c>
       <c r="H18">
-        <v>1.348469572164731</v>
+        <v>0.6609483331624659</v>
       </c>
       <c r="I18">
-        <v>1.372460363830172</v>
+        <v>0.5878782076419498</v>
       </c>
       <c r="J18">
-        <v>0.1905208609297553</v>
+        <v>0.100762404367142</v>
       </c>
       <c r="K18">
-        <v>0.7742404952944071</v>
+        <v>2.027361953115161</v>
       </c>
       <c r="L18">
-        <v>0.3319567217420172</v>
+        <v>0.3934942617945296</v>
       </c>
       <c r="M18">
-        <v>0.2514528043337734</v>
+        <v>0.3039411895292119</v>
       </c>
       <c r="N18">
-        <v>2.528127343650095</v>
+        <v>1.079421382809127</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7616786018139408</v>
+        <v>0.9293871395088047</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09670154200265557</v>
+        <v>0.03540042634032758</v>
       </c>
       <c r="E19">
-        <v>0.1285019797050972</v>
+        <v>0.0532059049158129</v>
       </c>
       <c r="F19">
-        <v>2.130939934507779</v>
+        <v>1.215754970837537</v>
       </c>
       <c r="G19">
-        <v>1.487136713297573</v>
+        <v>1.007469752301375</v>
       </c>
       <c r="H19">
-        <v>1.348688583308856</v>
+        <v>0.6595530096002022</v>
       </c>
       <c r="I19">
-        <v>1.373088260771503</v>
+        <v>0.5882404250478857</v>
       </c>
       <c r="J19">
-        <v>0.1904989289952521</v>
+        <v>0.1006777620357155</v>
       </c>
       <c r="K19">
-        <v>0.7693161499977919</v>
+        <v>2.009366457611407</v>
       </c>
       <c r="L19">
-        <v>0.3312400330619312</v>
+        <v>0.3903576105029885</v>
       </c>
       <c r="M19">
-        <v>0.250870128911032</v>
+        <v>0.3015023458637742</v>
       </c>
       <c r="N19">
-        <v>2.529882692480861</v>
+        <v>1.083619281000633</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7700842215780881</v>
+        <v>0.9634424312487226</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09675738729818306</v>
+        <v>0.03589274565141665</v>
       </c>
       <c r="E20">
-        <v>0.1284712313628196</v>
+        <v>0.05329255162590618</v>
       </c>
       <c r="F20">
-        <v>2.131307042435083</v>
+        <v>1.234057155100459</v>
       </c>
       <c r="G20">
-        <v>1.48873099644949</v>
+        <v>1.026786005235579</v>
       </c>
       <c r="H20">
-        <v>1.347738671973147</v>
+        <v>0.6659145957347334</v>
       </c>
       <c r="I20">
-        <v>1.370295483054335</v>
+        <v>0.5866798817389167</v>
       </c>
       <c r="J20">
-        <v>0.1905978530261194</v>
+        <v>0.1010601497960444</v>
       </c>
       <c r="K20">
-        <v>0.7914895882175301</v>
+        <v>2.090448786780684</v>
       </c>
       <c r="L20">
-        <v>0.3344745651714049</v>
+        <v>0.4045020487887854</v>
       </c>
       <c r="M20">
-        <v>0.2534987806956437</v>
+        <v>0.3124951793300497</v>
       </c>
       <c r="N20">
-        <v>2.522030682918967</v>
+        <v>1.06483190957022</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7986501971940072</v>
+        <v>1.078703093196168</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.09695955253819477</v>
+        <v>0.0375779778769143</v>
       </c>
       <c r="E21">
-        <v>0.1283768186827925</v>
+        <v>0.05360936608222944</v>
       </c>
       <c r="F21">
-        <v>2.13364237358627</v>
+        <v>1.298421441009111</v>
       </c>
       <c r="G21">
-        <v>1.494991612895305</v>
+        <v>1.094468336517863</v>
       </c>
       <c r="H21">
-        <v>1.345170806961164</v>
+        <v>0.6887908649351999</v>
       </c>
       <c r="I21">
-        <v>1.36148632136738</v>
+        <v>0.5826897119298451</v>
       </c>
       <c r="J21">
-        <v>0.1909341999172334</v>
+        <v>0.1023726174669761</v>
       </c>
       <c r="K21">
-        <v>0.8662205020283693</v>
+        <v>2.364796670293259</v>
       </c>
       <c r="L21">
-        <v>0.345505333250145</v>
+        <v>0.4525698483062115</v>
       </c>
       <c r="M21">
-        <v>0.2624447151575353</v>
+        <v>0.3497609425528054</v>
       </c>
       <c r="N21">
-        <v>2.49647604360376</v>
+        <v>1.003564310266761</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8175588548762676</v>
+        <v>1.15472344493628</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.09710244369725629</v>
+        <v>0.03870496595043349</v>
       </c>
       <c r="E22">
-        <v>0.1283217356690785</v>
+        <v>0.05383727257541482</v>
       </c>
       <c r="F22">
-        <v>2.135989131289477</v>
+        <v>1.342779702742618</v>
       </c>
       <c r="G22">
-        <v>1.499757199881913</v>
+        <v>1.140941011281683</v>
       </c>
       <c r="H22">
-        <v>1.343956932372052</v>
+        <v>0.7049361066632542</v>
       </c>
       <c r="I22">
-        <v>1.356156601782494</v>
+        <v>0.5810628207724235</v>
       </c>
       <c r="J22">
-        <v>0.191156970430864</v>
+        <v>0.1032531692679051</v>
       </c>
       <c r="K22">
-        <v>0.9152311357546807</v>
+        <v>2.545737191618997</v>
       </c>
       <c r="L22">
-        <v>0.3528355950758026</v>
+        <v>0.4844340261603577</v>
       </c>
       <c r="M22">
-        <v>0.2683757089459391</v>
+        <v>0.3743891269738882</v>
       </c>
       <c r="N22">
-        <v>2.48039109628931</v>
+        <v>0.9649580154319679</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8074452288713303</v>
+        <v>1.114082400809082</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.09702519930860376</v>
+        <v>0.03810096606919444</v>
       </c>
       <c r="E23">
-        <v>0.1283505293248863</v>
+        <v>0.05371361143966791</v>
       </c>
       <c r="F23">
-        <v>2.134661597948991</v>
+        <v>1.318884937749104</v>
       </c>
       <c r="G23">
-        <v>1.4971520458908</v>
+        <v>1.115921869057445</v>
       </c>
       <c r="H23">
-        <v>1.344562340772228</v>
+        <v>0.6962048250767481</v>
       </c>
       <c r="I23">
-        <v>1.358962074018301</v>
+        <v>0.5818382400420745</v>
       </c>
       <c r="J23">
-        <v>0.19103780477624</v>
+        <v>0.1027809736115515</v>
       </c>
       <c r="K23">
-        <v>0.8890578846538233</v>
+        <v>2.449002180020784</v>
       </c>
       <c r="L23">
-        <v>0.3489122621603684</v>
+        <v>0.4673835276771428</v>
       </c>
       <c r="M23">
-        <v>0.265202555074886</v>
+        <v>0.3612179077316213</v>
       </c>
       <c r="N23">
-        <v>2.488919520868013</v>
+        <v>0.9854280451060866</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7696213988517115</v>
+        <v>0.9615692786429975</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09675426569783596</v>
+        <v>0.03586559858661431</v>
       </c>
       <c r="E24">
-        <v>0.1284728864156619</v>
+        <v>0.05328770083454715</v>
       </c>
       <c r="F24">
-        <v>2.13128273525173</v>
+        <v>1.233041657297861</v>
       </c>
       <c r="G24">
-        <v>1.488640045283503</v>
+        <v>1.025715184528053</v>
       </c>
       <c r="H24">
-        <v>1.347788488914006</v>
+        <v>0.6655597791628196</v>
       </c>
       <c r="I24">
-        <v>1.370446687984021</v>
+        <v>0.5867609807529419</v>
       </c>
       <c r="J24">
-        <v>0.1905924055966839</v>
+        <v>0.1010390518469961</v>
       </c>
       <c r="K24">
-        <v>0.7902710523959513</v>
+        <v>2.085989403034006</v>
       </c>
       <c r="L24">
-        <v>0.3342963246775383</v>
+        <v>0.4037233616261915</v>
       </c>
       <c r="M24">
-        <v>0.2533539970126952</v>
+        <v>0.3118903223257092</v>
       </c>
       <c r="N24">
-        <v>2.522458766613273</v>
+        <v>1.065856771619941</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7298651882808826</v>
+        <v>0.799613656265393</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.09650867053725776</v>
+        <v>0.03354927569499466</v>
       </c>
       <c r="E25">
-        <v>0.1286333633412362</v>
+        <v>0.0529072084866411</v>
       </c>
       <c r="F25">
-        <v>2.131165699576684</v>
+        <v>1.14932706679474</v>
       </c>
       <c r="G25">
-        <v>1.482350998233855</v>
+        <v>0.9369847198504573</v>
       </c>
       <c r="H25">
-        <v>1.353265269628466</v>
+        <v>0.6371609458360439</v>
       </c>
       <c r="I25">
-        <v>1.384672901178238</v>
+        <v>0.5959854673747422</v>
       </c>
       <c r="J25">
-        <v>0.1901247233613717</v>
+        <v>0.09924455825881395</v>
       </c>
       <c r="K25">
-        <v>0.684458664073702</v>
+        <v>1.700159603196738</v>
       </c>
       <c r="L25">
-        <v>0.3190541008548706</v>
+        <v>0.3367105276426656</v>
       </c>
       <c r="M25">
-        <v>0.2409397035203824</v>
+        <v>0.259690505140437</v>
       </c>
       <c r="N25">
-        <v>2.561282666043546</v>
+        <v>1.158443050391046</v>
       </c>
       <c r="O25">
         <v>0</v>
